--- a/Settings-ST.xlsx
+++ b/Settings-ST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\BaxterAlgorithms_CSC2019\CTC_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5929893F-E21C-4771-BB47-28BAA85121D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E00CE853-CBF4-400A-B34B-93B8291ABBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="31605" yWindow="2775" windowWidth="21600" windowHeight="12735"/>
   </bookViews>
   <sheets>
     <sheet name="Settings-ST" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>setting</t>
   </si>
@@ -55,28 +55,31 @@
     <t>BF-C2DL-HSC</t>
   </si>
   <si>
-    <t>5.7784</t>
-  </si>
-  <si>
-    <t>3.3869</t>
-  </si>
-  <si>
-    <t>0.78373</t>
-  </si>
-  <si>
-    <t>0.047025</t>
-  </si>
-  <si>
-    <t>0.66363</t>
-  </si>
-  <si>
-    <t>0.022492</t>
+    <t>74.2667</t>
+  </si>
+  <si>
+    <t>1.2562</t>
+  </si>
+  <si>
+    <t>0.33064</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.55024</t>
+  </si>
+  <si>
+    <t>0.057223</t>
   </si>
   <si>
     <t>79.37</t>
   </si>
   <si>
-    <t>45.5842</t>
+    <t>148.0047</t>
+  </si>
+  <si>
+    <t>52.5478</t>
   </si>
   <si>
     <t>BF-C2DL-MuSC</t>
@@ -85,316 +88,340 @@
     <t>4.5</t>
   </si>
   <si>
-    <t>3.5734</t>
-  </si>
-  <si>
-    <t>0.90775</t>
-  </si>
-  <si>
-    <t>0.56809</t>
-  </si>
-  <si>
-    <t>0.010046</t>
-  </si>
-  <si>
-    <t>198.2421</t>
-  </si>
-  <si>
-    <t>260.7421</t>
-  </si>
-  <si>
-    <t>55.6196</t>
+    <t>3.174</t>
+  </si>
+  <si>
+    <t>0.9036</t>
+  </si>
+  <si>
+    <t>0.00069736</t>
+  </si>
+  <si>
+    <t>0.61045</t>
+  </si>
+  <si>
+    <t>0.019095</t>
+  </si>
+  <si>
+    <t>3.1966</t>
+  </si>
+  <si>
+    <t>208.6899</t>
   </si>
   <si>
     <t>DIC-C2DH-HeLa</t>
   </si>
   <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>3.75</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>0.01</t>
+    <t>4.6267</t>
+  </si>
+  <si>
+    <t>3.8218</t>
+  </si>
+  <si>
+    <t>0.60205</t>
+  </si>
+  <si>
+    <t>0.097006</t>
+  </si>
+  <si>
+    <t>0.47334</t>
+  </si>
+  <si>
+    <t>0.012616</t>
+  </si>
+  <si>
+    <t>7.6195</t>
+  </si>
+  <si>
+    <t>1592.7373</t>
+  </si>
+  <si>
+    <t>538.5986</t>
   </si>
   <si>
     <t>Fluo-C2DL-MSC</t>
   </si>
   <si>
-    <t>20.7562</t>
-  </si>
-  <si>
-    <t>3.6297</t>
-  </si>
-  <si>
-    <t>0.7554</t>
-  </si>
-  <si>
-    <t>0.018725</t>
-  </si>
-  <si>
-    <t>0.17631</t>
-  </si>
-  <si>
-    <t>0.015263</t>
-  </si>
-  <si>
-    <t>10.5523</t>
+    <t>70.1669</t>
+  </si>
+  <si>
+    <t>1.813</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>0.0070851</t>
+  </si>
+  <si>
+    <t>0.162</t>
+  </si>
+  <si>
+    <t>0.036842</t>
+  </si>
+  <si>
+    <t>9.1488</t>
   </si>
   <si>
     <t>1008.5539</t>
   </si>
   <si>
-    <t>87.2814</t>
-  </si>
-  <si>
     <t>Fluo-C3DH-A549</t>
   </si>
   <si>
-    <t>9.7125</t>
-  </si>
-  <si>
-    <t>4.7951</t>
-  </si>
-  <si>
-    <t>0.88346</t>
-  </si>
-  <si>
-    <t>0.0080858</t>
-  </si>
-  <si>
-    <t>0.056285</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>686.2841</t>
-  </si>
-  <si>
-    <t>6.25</t>
+    <t>31.0387</t>
+  </si>
+  <si>
+    <t>6.4717</t>
+  </si>
+  <si>
+    <t>1.2598</t>
+  </si>
+  <si>
+    <t>0.028695</t>
+  </si>
+  <si>
+    <t>0.25768</t>
+  </si>
+  <si>
+    <t>0.034825</t>
   </si>
   <si>
     <t>Fluo-C3DH-H157</t>
   </si>
   <si>
-    <t>5.9</t>
-  </si>
-  <si>
-    <t>4.6248</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>0.012543</t>
-  </si>
-  <si>
-    <t>0.26568</t>
-  </si>
-  <si>
-    <t>0.018757</t>
-  </si>
-  <si>
-    <t>6.7275</t>
-  </si>
-  <si>
-    <t>619.9725</t>
-  </si>
-  <si>
-    <t>550.1844</t>
+    <t>56.0416</t>
+  </si>
+  <si>
+    <t>4.0927</t>
+  </si>
+  <si>
+    <t>0.69272</t>
+  </si>
+  <si>
+    <t>0.0053237</t>
+  </si>
+  <si>
+    <t>0.22122</t>
+  </si>
+  <si>
+    <t>0.032411</t>
+  </si>
+  <si>
+    <t>11.0637</t>
+  </si>
+  <si>
+    <t>36767.5886</t>
+  </si>
+  <si>
+    <t>14.6823</t>
   </si>
   <si>
     <t>Fluo-C3DL-MDA231</t>
   </si>
   <si>
-    <t>16.5463</t>
-  </si>
-  <si>
-    <t>2.4086</t>
-  </si>
-  <si>
-    <t>1.1584</t>
-  </si>
-  <si>
-    <t>0.024235</t>
-  </si>
-  <si>
-    <t>0.21337</t>
-  </si>
-  <si>
-    <t>0.030379</t>
-  </si>
-  <si>
-    <t>171.4176</t>
-  </si>
-  <si>
-    <t>17.2265</t>
+    <t>10.2451</t>
+  </si>
+  <si>
+    <t>2.868</t>
+  </si>
+  <si>
+    <t>0.92914</t>
+  </si>
+  <si>
+    <t>0.024022</t>
+  </si>
+  <si>
+    <t>0.17532</t>
+  </si>
+  <si>
+    <t>0.032004</t>
+  </si>
+  <si>
+    <t>1.8589</t>
+  </si>
+  <si>
+    <t>225.658</t>
+  </si>
+  <si>
+    <t>22.8277</t>
   </si>
   <si>
     <t>Fluo-N2DH-GOWT1</t>
   </si>
   <si>
-    <t>20.1374</t>
-  </si>
-  <si>
-    <t>1.0914</t>
-  </si>
-  <si>
-    <t>0.83375</t>
-  </si>
-  <si>
-    <t>0.00203</t>
-  </si>
-  <si>
-    <t>0.14798</t>
-  </si>
-  <si>
-    <t>0.11634</t>
-  </si>
-  <si>
-    <t>10.6858</t>
-  </si>
-  <si>
-    <t>785.3916</t>
-  </si>
-  <si>
-    <t>17.733</t>
+    <t>26.2777</t>
+  </si>
+  <si>
+    <t>1.701</t>
+  </si>
+  <si>
+    <t>1.1141</t>
+  </si>
+  <si>
+    <t>0.00085019</t>
+  </si>
+  <si>
+    <t>0.16236</t>
+  </si>
+  <si>
+    <t>0.11739</t>
+  </si>
+  <si>
+    <t>9.0707</t>
+  </si>
+  <si>
+    <t>765.7523</t>
+  </si>
+  <si>
+    <t>17.9675</t>
   </si>
   <si>
     <t>Fluo-N2DL-HeLa</t>
   </si>
   <si>
-    <t>8.6238</t>
-  </si>
-  <si>
-    <t>0.41542</t>
-  </si>
-  <si>
-    <t>0.58775</t>
-  </si>
-  <si>
-    <t>0.0005973</t>
-  </si>
-  <si>
-    <t>0.032237</t>
-  </si>
-  <si>
-    <t>1.0195</t>
-  </si>
-  <si>
-    <t>72.9308</t>
-  </si>
-  <si>
-    <t>0.1425</t>
+    <t>6.5517</t>
+  </si>
+  <si>
+    <t>0.67757</t>
+  </si>
+  <si>
+    <t>0.74755</t>
+  </si>
+  <si>
+    <t>0.006088</t>
+  </si>
+  <si>
+    <t>0.21365</t>
+  </si>
+  <si>
+    <t>0.054902</t>
+  </si>
+  <si>
+    <t>0.96734</t>
+  </si>
+  <si>
+    <t>103.4768</t>
+  </si>
+  <si>
+    <t>0.51237</t>
   </si>
   <si>
     <t>Fluo-N3DH-CE</t>
   </si>
   <si>
-    <t>19.2728</t>
-  </si>
-  <si>
-    <t>6.5594</t>
-  </si>
-  <si>
-    <t>0.016335</t>
-  </si>
-  <si>
-    <t>0.63305</t>
-  </si>
-  <si>
-    <t>0.0090361</t>
-  </si>
-  <si>
-    <t>2.62</t>
-  </si>
-  <si>
-    <t>748.9671</t>
+    <t>14.3347</t>
+  </si>
+  <si>
+    <t>7.2611</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>0.018214</t>
+  </si>
+  <si>
+    <t>0.59379</t>
+  </si>
+  <si>
+    <t>0.0066794</t>
+  </si>
+  <si>
+    <t>2.496</t>
+  </si>
+  <si>
+    <t>1036.715</t>
+  </si>
+  <si>
+    <t>143.9001</t>
   </si>
   <si>
     <t>Fluo-N3DH-CHO</t>
   </si>
   <si>
-    <t>32.6082</t>
-  </si>
-  <si>
-    <t>2.8468</t>
-  </si>
-  <si>
-    <t>0.74773</t>
-  </si>
-  <si>
-    <t>0.024608</t>
+    <t>15.6497</t>
+  </si>
+  <si>
+    <t>7.0009</t>
+  </si>
+  <si>
+    <t>0.80602</t>
+  </si>
+  <si>
+    <t>0.014022</t>
   </si>
   <si>
     <t>0.09</t>
   </si>
   <si>
-    <t>0.0080757</t>
-  </si>
-  <si>
-    <t>8.458</t>
-  </si>
-  <si>
-    <t>4865.4548</t>
-  </si>
-  <si>
-    <t>7.75</t>
+    <t>0.0096882</t>
+  </si>
+  <si>
+    <t>7.826</t>
+  </si>
+  <si>
+    <t>4586.3533</t>
+  </si>
+  <si>
+    <t>9.55</t>
   </si>
   <si>
     <t>PhC-C2DH-U373</t>
   </si>
   <si>
-    <t>17.6844</t>
-  </si>
-  <si>
-    <t>5.9859</t>
-  </si>
-  <si>
-    <t>0.9036</t>
-  </si>
-  <si>
-    <t>0.0014238</t>
-  </si>
-  <si>
-    <t>0.04097</t>
-  </si>
-  <si>
-    <t>7.5407</t>
-  </si>
-  <si>
-    <t>366.1402</t>
+    <t>7.749</t>
+  </si>
+  <si>
+    <t>4.0127</t>
+  </si>
+  <si>
+    <t>1.0025</t>
+  </si>
+  <si>
+    <t>0.00033559</t>
+  </si>
+  <si>
+    <t>0.42664</t>
+  </si>
+  <si>
+    <t>0.027211</t>
+  </si>
+  <si>
+    <t>4.5626</t>
+  </si>
+  <si>
+    <t>697.3728</t>
+  </si>
+  <si>
+    <t>570.3793</t>
   </si>
   <si>
     <t>PhC-C2DL-PSC</t>
   </si>
   <si>
-    <t>4.8195</t>
-  </si>
-  <si>
-    <t>1.1238</t>
-  </si>
-  <si>
-    <t>0.004322</t>
-  </si>
-  <si>
-    <t>0.90499</t>
-  </si>
-  <si>
-    <t>0.042524</t>
-  </si>
-  <si>
-    <t>0.95898</t>
-  </si>
-  <si>
-    <t>24.3944</t>
-  </si>
-  <si>
-    <t>18.4024</t>
+    <t>5.4764</t>
+  </si>
+  <si>
+    <t>1.0575</t>
+  </si>
+  <si>
+    <t>0.0049211</t>
+  </si>
+  <si>
+    <t>0.94693</t>
+  </si>
+  <si>
+    <t>0.037305</t>
+  </si>
+  <si>
+    <t>0.90879</t>
+  </si>
+  <si>
+    <t>25.8682</t>
+  </si>
+  <si>
+    <t>18.3142</t>
   </si>
 </sst>
 </file>
@@ -1312,395 +1339,395 @@
       <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="I2">
-        <v>125</v>
+      <c r="I2" t="s">
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>100</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>155</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
+        <v>71</v>
+      </c>
+      <c r="H8" t="s">
+        <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
+        <v>89</v>
+      </c>
+      <c r="F10" t="s">
+        <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J10" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
+        <v>97</v>
+      </c>
+      <c r="D11" t="s">
+        <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H11" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I11" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11">
-        <v>5</v>
+        <v>103</v>
+      </c>
+      <c r="J11" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H12" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="I12" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
+        <v>119</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
       </c>
       <c r="G13" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="H13" t="s">
-        <v>114</v>
-      </c>
-      <c r="I13">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
       </c>
       <c r="J13" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="G14" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="H14" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="J14" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
